--- a/Tarea 3/Datos/Base de datos ejercicio 3.xlsx
+++ b/Tarea 3/Datos/Base de datos ejercicio 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Tarea 3/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{6709A9C5-DF88-4A81-A933-386C21135B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8FA3A437-B74B-4054-A27C-AB1E8ADEDD91}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{6709A9C5-DF88-4A81-A933-386C21135B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4C4BD461-A6FD-4F7B-8407-C5B762C327BA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -100,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,19 +139,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -169,19 +156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -189,9 +170,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -511,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A113"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -527,1526 +505,1178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.8" thickBot="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10">
-        <v>33970</v>
-      </c>
-      <c r="B2" s="4">
-        <v>10008894.699999999</v>
-      </c>
-      <c r="C2" s="5">
-        <v>70.529465305866665</v>
-      </c>
-      <c r="D2" s="6"/>
+      <c r="A2" s="6">
+        <v>36617</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12994568.9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>89.457974400633319</v>
+      </c>
+      <c r="D2" s="1">
+        <v>39043393</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11">
-        <v>34060</v>
+      <c r="A3" s="6">
+        <v>36708</v>
       </c>
       <c r="B3" s="1">
-        <v>10171035.4</v>
+        <v>13008792.199999999</v>
       </c>
       <c r="C3" s="2">
-        <v>69.285460519799997</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>93.707636753066666</v>
+      </c>
+      <c r="D3" s="1">
+        <v>39086090</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11">
-        <v>34151</v>
+      <c r="A4" s="6">
+        <v>36800</v>
       </c>
       <c r="B4" s="1">
-        <v>10066258.4</v>
+        <v>13003302.199999999</v>
       </c>
       <c r="C4" s="2">
-        <v>70.981417168600004</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>88.889851273833344</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39325442</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11">
-        <v>34243</v>
+      <c r="A5" s="6">
+        <v>36892</v>
       </c>
       <c r="B5" s="1">
-        <v>10416096.199999999</v>
+        <v>12796119.5</v>
       </c>
       <c r="C5" s="2">
-        <v>73.386355948799988</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>89.469386317066665</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39199182</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11">
-        <v>34335</v>
+      <c r="A6" s="6">
+        <v>36982</v>
       </c>
       <c r="B6" s="1">
-        <v>10343388.5</v>
+        <v>12967530.199999999</v>
       </c>
       <c r="C6" s="2">
-        <v>73.558023287000012</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>86.600050234066671</v>
+      </c>
+      <c r="D6" s="1">
+        <v>39061884</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11">
-        <v>34425</v>
+      <c r="A7" s="6">
+        <v>37073</v>
       </c>
       <c r="B7" s="1">
-        <v>10772526.199999999</v>
+        <v>12857408.6</v>
       </c>
       <c r="C7" s="2">
-        <v>74.213252043633332</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>90.875409659599995</v>
+      </c>
+      <c r="D7" s="1">
+        <v>39638179</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11">
-        <v>34516</v>
+      <c r="A8" s="6">
+        <v>37165</v>
       </c>
       <c r="B8" s="1">
-        <v>10602752.9</v>
+        <v>12901429.199999999</v>
       </c>
       <c r="C8" s="2">
-        <v>76.050412656999995</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>87.437256413100002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>39800112</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11">
-        <v>34608</v>
+      <c r="A9" s="6">
+        <v>37257</v>
       </c>
       <c r="B9" s="1">
-        <v>10952773.4</v>
+        <v>12415541.4</v>
       </c>
       <c r="C9" s="2">
-        <v>76.146842471566671</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>84.852078382366656</v>
+      </c>
+      <c r="D9" s="1">
+        <v>39909054</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11">
-        <v>34700</v>
+      <c r="A10" s="6">
+        <v>37347</v>
       </c>
       <c r="B10" s="1">
-        <v>10189745.5</v>
+        <v>13112362.800000001</v>
       </c>
       <c r="C10" s="2">
-        <v>69.366781071100007</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>86.941519599566661</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40085234</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11">
-        <v>34790</v>
+      <c r="A11" s="6">
+        <v>37438</v>
       </c>
       <c r="B11" s="1">
-        <v>9795719</v>
+        <v>12889950.1</v>
       </c>
       <c r="C11" s="2">
-        <v>63.689147701066666</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>89.220272650500007</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40252703</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11">
-        <v>34881</v>
+      <c r="A12" s="6">
+        <v>37530</v>
       </c>
       <c r="B12" s="1">
-        <v>9802904.4000000004</v>
+        <v>13084104.4</v>
       </c>
       <c r="C12" s="2">
-        <v>66.250906067633323</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>88.041349474566644</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40094511</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11">
-        <v>34973</v>
+      <c r="A13" s="6">
+        <v>37622</v>
       </c>
       <c r="B13" s="1">
-        <v>10198513.300000001</v>
+        <v>12803323.699999999</v>
       </c>
       <c r="C13" s="2">
-        <v>68.016263378100007</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>87.662465413600003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40465879</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11">
-        <v>35065</v>
+      <c r="A14" s="6">
+        <v>37712</v>
       </c>
       <c r="B14" s="1">
-        <v>10426430.9</v>
+        <v>13182930</v>
       </c>
       <c r="C14" s="2">
-        <v>72.825648908333335</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>87.945756623633315</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40417155</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11">
-        <v>35156</v>
+      <c r="A15" s="6">
+        <v>37803</v>
       </c>
       <c r="B15" s="1">
-        <v>10569227.5</v>
+        <v>12954912.9</v>
       </c>
       <c r="C15" s="2">
-        <v>72.261293830766661</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>90.084328713166656</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41301033</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11">
-        <v>35247</v>
+      <c r="A16" s="6">
+        <v>37895</v>
       </c>
       <c r="B16" s="1">
-        <v>10583112.1</v>
+        <v>13305707.4</v>
       </c>
       <c r="C16" s="2">
-        <v>75.550765304199999</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>89.504735389766665</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41280968</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="11">
-        <v>35339</v>
+      <c r="A17" s="6">
+        <v>37987</v>
       </c>
       <c r="B17" s="1">
-        <v>11116526.6</v>
+        <v>13252629.6</v>
       </c>
       <c r="C17" s="2">
-        <v>78.284376150966651</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>91.142468139500011</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41547418</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11">
-        <v>35431</v>
+      <c r="A18" s="6">
+        <v>38078</v>
       </c>
       <c r="B18" s="1">
-        <v>10862932</v>
+        <v>13732336</v>
       </c>
       <c r="C18" s="2">
-        <v>76.654416418166662</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>91.912554821599997</v>
+      </c>
+      <c r="D18" s="1">
+        <v>42100766</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11">
-        <v>35521</v>
+      <c r="A19" s="6">
+        <v>38169</v>
       </c>
       <c r="B19" s="1">
-        <v>11460068.1</v>
+        <v>13438260.1</v>
       </c>
       <c r="C19" s="2">
-        <v>79.345968877800004</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>93.018235456133326</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42230557</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11">
-        <v>35612</v>
+      <c r="A20" s="6">
+        <v>38261</v>
       </c>
       <c r="B20" s="1">
-        <v>11408200.800000001</v>
+        <v>13872034.5</v>
       </c>
       <c r="C20" s="2">
-        <v>82.852799181066658</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>92.809873288966671</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41970528</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11">
-        <v>35704</v>
+      <c r="A21" s="6">
+        <v>38353</v>
       </c>
       <c r="B21" s="1">
-        <v>11887380.1</v>
+        <v>13354787.9</v>
       </c>
       <c r="C21" s="2">
-        <v>83.663118159833331</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>91.499317909166663</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43099847</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11">
-        <v>35796</v>
+      <c r="A22" s="6">
+        <v>38443</v>
       </c>
       <c r="B22" s="1">
-        <v>11827638</v>
+        <v>14104833.9</v>
       </c>
       <c r="C22" s="2">
-        <v>84.931801042666677</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>94.927479444033338</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43180433</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="11">
-        <v>35886</v>
+      <c r="A23" s="6">
+        <v>38534</v>
       </c>
       <c r="B23" s="1">
-        <v>12034464.199999999</v>
+        <v>13782144.4</v>
       </c>
       <c r="C23" s="2">
-        <v>83.865534994399994</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>94.250835111466657</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44000204</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="11">
-        <v>35977</v>
+      <c r="A24" s="6">
+        <v>38626</v>
       </c>
       <c r="B24" s="1">
-        <v>11972371.6</v>
+        <v>14306523.800000001</v>
       </c>
       <c r="C24" s="2">
-        <v>87.09109847083333</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>96.137467227099989</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44245519</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="11">
-        <v>36069</v>
+      <c r="A25" s="6">
+        <v>38718</v>
       </c>
       <c r="B25" s="1">
-        <v>12139816.6</v>
+        <v>14107960</v>
       </c>
       <c r="C25" s="2">
-        <v>85.891688045433341</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>96.446791133066668</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44306012</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="11">
-        <v>36161</v>
+      <c r="A26" s="6">
+        <v>38808</v>
       </c>
       <c r="B26" s="1">
-        <v>12100154.5</v>
+        <v>14700503.9</v>
       </c>
       <c r="C26" s="2">
-        <v>86.636268205033332</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>98.193252072800007</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44611672</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="11">
-        <v>36251</v>
+      <c r="A27" s="6">
+        <v>38899</v>
       </c>
       <c r="B27" s="1">
-        <v>12315219.1</v>
+        <v>14435867.699999999</v>
       </c>
       <c r="C27" s="2">
-        <v>84.999335143899998</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>99.383464705800009</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45431392</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="11">
-        <v>36342</v>
+      <c r="A28" s="6">
+        <v>38991</v>
       </c>
       <c r="B28" s="1">
-        <v>12325229.1</v>
+        <v>14800897.300000001</v>
       </c>
       <c r="C28" s="2">
-        <v>88.553855075166666</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>98.352451084733332</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45580994</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="11">
-        <v>36434</v>
+      <c r="A29" s="6">
+        <v>39083</v>
       </c>
       <c r="B29" s="1">
-        <v>12554685.800000001</v>
+        <v>14393727.4</v>
       </c>
       <c r="C29" s="2">
-        <v>86.84460245870001</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>97.855519766499995</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45314888</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11">
-        <v>36526</v>
+      <c r="A30" s="6">
+        <v>39173</v>
       </c>
       <c r="B30" s="1">
-        <v>12725022.1</v>
+        <v>14993339.4</v>
       </c>
       <c r="C30" s="2">
-        <v>90.237210975566668</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>99.076712177999994</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45569395</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="11">
-        <v>36617</v>
+      <c r="A31" s="6">
+        <v>39264</v>
       </c>
       <c r="B31" s="1">
-        <v>12994568.9</v>
+        <v>14783298.199999999</v>
       </c>
       <c r="C31" s="2">
-        <v>89.457974400633319</v>
+        <v>99.585304601433336</v>
       </c>
       <c r="D31" s="1">
-        <v>39043393</v>
+        <v>45864926</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="11">
-        <v>36708</v>
+      <c r="A32" s="6">
+        <v>39356</v>
       </c>
       <c r="B32" s="1">
-        <v>13008792.199999999</v>
+        <v>15204938.9</v>
       </c>
       <c r="C32" s="2">
-        <v>93.707636753066666</v>
+        <v>99.49392760886667</v>
       </c>
       <c r="D32" s="1">
-        <v>39086090</v>
+        <v>46868952</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="11">
-        <v>36800</v>
+      <c r="A33" s="6">
+        <v>39448</v>
       </c>
       <c r="B33" s="1">
-        <v>13003302.199999999</v>
+        <v>14563428.4</v>
       </c>
       <c r="C33" s="2">
-        <v>88.889851273833344</v>
+        <v>97.535978260333351</v>
       </c>
       <c r="D33" s="1">
-        <v>39325442</v>
+        <v>46453196</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="11">
-        <v>36892</v>
+      <c r="A34" s="6">
+        <v>39539</v>
       </c>
       <c r="B34" s="1">
-        <v>12796119.5</v>
+        <v>15386334.1</v>
       </c>
       <c r="C34" s="2">
-        <v>89.469386317066665</v>
+        <v>99.692050156366648</v>
       </c>
       <c r="D34" s="1">
-        <v>39199182</v>
+        <v>46905921</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="11">
-        <v>36982</v>
+      <c r="A35" s="6">
+        <v>39630</v>
       </c>
       <c r="B35" s="1">
-        <v>12967530.199999999</v>
+        <v>14979494.699999999</v>
       </c>
       <c r="C35" s="2">
-        <v>86.600050234066671</v>
+        <v>98.191063170733329</v>
       </c>
       <c r="D35" s="1">
-        <v>39061884</v>
+        <v>46964082</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="11">
-        <v>37073</v>
+      <c r="A36" s="6">
+        <v>39722</v>
       </c>
       <c r="B36" s="1">
-        <v>12857408.6</v>
+        <v>15125053.6</v>
       </c>
       <c r="C36" s="2">
-        <v>90.875409659599995</v>
+        <v>96.436454714666681</v>
       </c>
       <c r="D36" s="1">
-        <v>39638179</v>
+        <v>46753657</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="11">
-        <v>37165</v>
+      <c r="A37" s="6">
+        <v>39814</v>
       </c>
       <c r="B37" s="1">
-        <v>12901429.199999999</v>
+        <v>13752148.800000001</v>
       </c>
       <c r="C37" s="2">
-        <v>87.437256413100002</v>
+        <v>88.864155065600002</v>
       </c>
       <c r="D37" s="1">
-        <v>39800112</v>
+        <v>46977904</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="11">
-        <v>37257</v>
+      <c r="A38" s="6">
+        <v>39904</v>
       </c>
       <c r="B38" s="1">
-        <v>12415541.4</v>
+        <v>14012937.6</v>
       </c>
       <c r="C38" s="2">
-        <v>84.852078382366656</v>
+        <v>89.076082944266659</v>
       </c>
       <c r="D38" s="1">
-        <v>39909054</v>
+        <v>47453163</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="11">
-        <v>37347</v>
+      <c r="A39" s="6">
+        <v>39995</v>
       </c>
       <c r="B39" s="1">
-        <v>13112362.800000001</v>
+        <v>14231941.5</v>
       </c>
       <c r="C39" s="2">
-        <v>86.941519599566661</v>
+        <v>91.42673166343333</v>
       </c>
       <c r="D39" s="1">
-        <v>40085234</v>
+        <v>48738589</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="11">
-        <v>37438</v>
+      <c r="A40" s="6">
+        <v>40087</v>
       </c>
       <c r="B40" s="1">
-        <v>12889950.1</v>
+        <v>14882965.699999999</v>
       </c>
       <c r="C40" s="2">
-        <v>89.220272650500007</v>
+        <v>93.194534282566664</v>
       </c>
       <c r="D40" s="1">
-        <v>40252703</v>
+        <v>48903792</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="11">
-        <v>37530</v>
+      <c r="A41" s="6">
+        <v>40179</v>
       </c>
       <c r="B41" s="1">
-        <v>13084104.4</v>
+        <v>14371721.5</v>
       </c>
       <c r="C41" s="2">
-        <v>88.041349474566644</v>
+        <v>92.834801736166654</v>
       </c>
       <c r="D41" s="1">
-        <v>40094511</v>
+        <v>48069274</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="11">
-        <v>37622</v>
+      <c r="A42" s="6">
+        <v>40269</v>
       </c>
       <c r="B42" s="1">
-        <v>12803323.699999999</v>
+        <v>14998399.300000001</v>
       </c>
       <c r="C42" s="2">
-        <v>87.662465413600003</v>
+        <v>95.00796739033332</v>
       </c>
       <c r="D42" s="1">
-        <v>40465879</v>
+        <v>49133132</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="11">
-        <v>37712</v>
+      <c r="A43" s="6">
+        <v>40360</v>
       </c>
       <c r="B43" s="1">
-        <v>13182930</v>
+        <v>14921452.800000001</v>
       </c>
       <c r="C43" s="2">
-        <v>87.945756623633315</v>
+        <v>95.300375606800003</v>
       </c>
       <c r="D43" s="1">
-        <v>40417155</v>
+        <v>49190032</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="11">
-        <v>37803</v>
+      <c r="A44" s="6">
+        <v>40452</v>
       </c>
       <c r="B44" s="1">
-        <v>12954912.9</v>
+        <v>15499605.1</v>
       </c>
       <c r="C44" s="2">
-        <v>90.084328713166656</v>
+        <v>95.864625314600005</v>
       </c>
       <c r="D44" s="1">
-        <v>41301033</v>
+        <v>48478718</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="11">
-        <v>37895</v>
+      <c r="A45" s="6">
+        <v>40544</v>
       </c>
       <c r="B45" s="1">
-        <v>13305707.4</v>
+        <v>14902733.1</v>
       </c>
       <c r="C45" s="2">
-        <v>89.504735389766665</v>
+        <v>94.277678297333338</v>
       </c>
       <c r="D45" s="1">
-        <v>41280968</v>
+        <v>48505168</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="11">
-        <v>37987</v>
+      <c r="A46" s="6">
+        <v>40634</v>
       </c>
       <c r="B46" s="1">
-        <v>13252629.6</v>
+        <v>15413046.4</v>
       </c>
       <c r="C46" s="2">
-        <v>91.142468139500011</v>
+        <v>96.858395653366685</v>
       </c>
       <c r="D46" s="1">
-        <v>41547418</v>
+        <v>49482112</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="11">
-        <v>38078</v>
+      <c r="A47" s="6">
+        <v>40725</v>
       </c>
       <c r="B47" s="1">
-        <v>13732336</v>
+        <v>15526015.300000001</v>
       </c>
       <c r="C47" s="2">
-        <v>91.912554821599997</v>
+        <v>98.007566970033338</v>
       </c>
       <c r="D47" s="1">
-        <v>42100766</v>
+        <v>50127032</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="11">
-        <v>38169</v>
+      <c r="A48" s="6">
+        <v>40817</v>
       </c>
       <c r="B48" s="1">
-        <v>13438260.1</v>
+        <v>16139539.5</v>
       </c>
       <c r="C48" s="2">
-        <v>93.018235456133326</v>
+        <v>100.66274684119999</v>
       </c>
       <c r="D48" s="1">
-        <v>42230557</v>
+        <v>50772496</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="11">
-        <v>38261</v>
+      <c r="A49" s="6">
+        <v>40909</v>
       </c>
       <c r="B49" s="1">
-        <v>13872034.5</v>
+        <v>15619752.699999999</v>
       </c>
       <c r="C49" s="2">
-        <v>92.809873288966671</v>
+        <v>98.581348372500017</v>
       </c>
       <c r="D49" s="1">
-        <v>41970528</v>
+        <v>50192842</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11">
-        <v>38353</v>
+      <c r="A50" s="6">
+        <v>41000</v>
       </c>
       <c r="B50" s="1">
-        <v>13354787.9</v>
+        <v>16027465.4</v>
       </c>
       <c r="C50" s="2">
-        <v>91.499317909166663</v>
+        <v>100.14055011976666</v>
       </c>
       <c r="D50" s="1">
-        <v>43099847</v>
+        <v>51477178</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="11">
-        <v>38443</v>
+      <c r="A51" s="6">
+        <v>41091</v>
       </c>
       <c r="B51" s="1">
-        <v>14104833.9</v>
+        <v>15952811.300000001</v>
       </c>
       <c r="C51" s="2">
-        <v>94.927479444033338</v>
+        <v>101.16691653186666</v>
       </c>
       <c r="D51" s="1">
-        <v>43180433</v>
+        <v>51927050</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="11">
-        <v>38534</v>
+      <c r="A52" s="6">
+        <v>41183</v>
       </c>
       <c r="B52" s="1">
-        <v>13782144.4</v>
+        <v>16638865.199999999</v>
       </c>
       <c r="C52" s="2">
-        <v>94.250835111466657</v>
+        <v>101.00582707966667</v>
       </c>
       <c r="D52" s="1">
-        <v>44000204</v>
+        <v>51317999</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="11">
-        <v>38626</v>
+      <c r="A53" s="6">
+        <v>41275</v>
       </c>
       <c r="B53" s="1">
-        <v>14306523.800000001</v>
+        <v>15719787.1</v>
       </c>
       <c r="C53" s="2">
-        <v>96.137467227099989</v>
+        <v>97.770593207166669</v>
       </c>
       <c r="D53" s="1">
-        <v>44245519</v>
+        <v>50847242</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="11">
-        <v>38718</v>
+      <c r="A54" s="6">
+        <v>41365</v>
       </c>
       <c r="B54" s="1">
-        <v>14107960</v>
+        <v>16361863.800000001</v>
       </c>
       <c r="C54" s="2">
-        <v>96.446791133066668</v>
+        <v>100.34858603026667</v>
       </c>
       <c r="D54" s="1">
-        <v>44306012</v>
+        <v>51895865</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="11">
-        <v>38808</v>
+      <c r="A55" s="6">
+        <v>41456</v>
       </c>
       <c r="B55" s="1">
-        <v>14700503.9</v>
+        <v>16186108.699999999</v>
       </c>
       <c r="C55" s="2">
-        <v>98.193252072800007</v>
+        <v>100.26714586050001</v>
       </c>
       <c r="D55" s="1">
-        <v>44611672</v>
+        <v>52034353</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="11">
-        <v>38899</v>
+      <c r="A56" s="6">
+        <v>41548</v>
       </c>
       <c r="B56" s="1">
-        <v>14435867.699999999</v>
+        <v>16840988.699999999</v>
       </c>
       <c r="C56" s="2">
-        <v>99.383464705800009</v>
+        <v>101.61367490206665</v>
       </c>
       <c r="D56" s="1">
-        <v>45431392</v>
+        <v>52370886</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="11">
-        <v>38991</v>
+      <c r="A57" s="6">
+        <v>41640</v>
       </c>
       <c r="B57" s="1">
-        <v>14800897.300000001</v>
+        <v>16162067.9</v>
       </c>
       <c r="C57" s="2">
-        <v>98.352451084733332</v>
+        <v>100.37173201673333</v>
       </c>
       <c r="D57" s="1">
-        <v>45580994</v>
+        <v>51559018</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="11">
-        <v>39083</v>
+      <c r="A58" s="6">
+        <v>41730</v>
       </c>
       <c r="B58" s="1">
-        <v>14393727.4</v>
+        <v>16743444.5</v>
       </c>
       <c r="C58" s="2">
-        <v>97.855519766499995</v>
+        <v>102.88336962156667</v>
       </c>
       <c r="D58" s="1">
-        <v>45314888</v>
+        <v>51836752</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="11">
-        <v>39173</v>
+      <c r="A59" s="6">
+        <v>41821</v>
       </c>
       <c r="B59" s="1">
-        <v>14993339.4</v>
+        <v>16649896.199999999</v>
       </c>
       <c r="C59" s="2">
-        <v>99.076712177999994</v>
+        <v>102.69917708003334</v>
       </c>
       <c r="D59" s="1">
-        <v>45569395</v>
+        <v>52192043</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="11">
-        <v>39264</v>
+      <c r="A60" s="6">
+        <v>41913</v>
       </c>
       <c r="B60" s="1">
-        <v>14783298.199999999</v>
+        <v>17408791.300000001</v>
       </c>
       <c r="C60" s="2">
-        <v>99.585304601433336</v>
+        <v>104.33769125786667</v>
       </c>
       <c r="D60" s="1">
-        <v>45864926</v>
+        <v>52108400</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="11">
-        <v>39356</v>
+      <c r="A61" s="6">
+        <v>42005</v>
       </c>
       <c r="B61" s="1">
-        <v>15204938.9</v>
+        <v>16710227.4</v>
       </c>
       <c r="C61" s="2">
-        <v>99.49392760886667</v>
+        <v>101.75597557869999</v>
       </c>
       <c r="D61" s="1">
-        <v>46868952</v>
+        <v>52007842</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="11">
-        <v>39448</v>
+      <c r="A62" s="6">
+        <v>42095</v>
       </c>
       <c r="B62" s="1">
-        <v>14563428.4</v>
+        <v>17261231.300000001</v>
       </c>
       <c r="C62" s="2">
-        <v>97.535978260333351</v>
+        <v>103.08009542493333</v>
       </c>
       <c r="D62" s="1">
-        <v>46453196</v>
+        <v>52623721</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="11">
-        <v>39539</v>
+      <c r="A63" s="6">
+        <v>42186</v>
       </c>
       <c r="B63" s="1">
-        <v>15386334.1</v>
+        <v>17331652.300000001</v>
       </c>
       <c r="C63" s="2">
-        <v>99.692050156366648</v>
+        <v>105.55374746496666</v>
       </c>
       <c r="D63" s="1">
-        <v>46905921</v>
+        <v>53179919</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="11">
-        <v>39630</v>
+      <c r="A64" s="6">
+        <v>42278</v>
       </c>
       <c r="B64" s="1">
-        <v>14979494.699999999</v>
+        <v>17866321.600000001</v>
       </c>
       <c r="C64" s="2">
-        <v>98.191063170733329</v>
+        <v>104.42122641869999</v>
       </c>
       <c r="D64" s="1">
-        <v>46964082</v>
+        <v>53809017</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="11">
-        <v>39722</v>
+      <c r="A65" s="6">
+        <v>42370</v>
       </c>
       <c r="B65" s="1">
-        <v>15125053.6</v>
+        <v>17166317.600000001</v>
       </c>
       <c r="C65" s="2">
-        <v>96.436454714666681</v>
+        <v>102.83286849396667</v>
       </c>
       <c r="D65" s="1">
-        <v>46753657</v>
+        <v>52918649</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="11">
-        <v>39814</v>
+      <c r="A66" s="6">
+        <v>42461</v>
       </c>
       <c r="B66" s="1">
-        <v>13752148.800000001</v>
+        <v>17780958.600000001</v>
       </c>
       <c r="C66" s="2">
-        <v>88.864155065600002</v>
+        <v>104.4972636087</v>
       </c>
       <c r="D66" s="1">
-        <v>46977904</v>
+        <v>53539565</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="11">
-        <v>39904</v>
+      <c r="A67" s="6">
+        <v>42552</v>
       </c>
       <c r="B67" s="1">
-        <v>14012937.6</v>
+        <v>17625592.100000001</v>
       </c>
       <c r="C67" s="2">
-        <v>89.076082944266659</v>
+        <v>104.2029320908</v>
       </c>
       <c r="D67" s="1">
-        <v>47453163</v>
+        <v>54226803</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="11">
-        <v>39995</v>
+      <c r="A68" s="6">
+        <v>42644</v>
       </c>
       <c r="B68" s="1">
-        <v>14231941.5</v>
+        <v>18416088.699999999</v>
       </c>
       <c r="C68" s="2">
-        <v>91.42673166343333</v>
+        <v>104.59097660750001</v>
       </c>
       <c r="D68" s="1">
-        <v>48738589</v>
+        <v>54034800</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="11">
-        <v>40087</v>
+      <c r="A69" s="6">
+        <v>42736</v>
       </c>
       <c r="B69" s="1">
-        <v>14882965.699999999</v>
+        <v>17757948.300000001</v>
       </c>
       <c r="C69" s="2">
-        <v>93.194534282566664</v>
+        <v>103.93608957573332</v>
       </c>
       <c r="D69" s="1">
-        <v>48903792</v>
+        <v>53681720</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="11">
-        <v>40179</v>
+      <c r="A70" s="6">
+        <v>42826</v>
       </c>
       <c r="B70" s="1">
-        <v>14371721.5</v>
+        <v>18085551.199999999</v>
       </c>
       <c r="C70" s="2">
-        <v>92.834801736166654</v>
+        <v>103.6189851804</v>
       </c>
       <c r="D70" s="1">
-        <v>48069274</v>
+        <v>54068791</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11">
-        <v>40269</v>
+      <c r="A71" s="6">
+        <v>42917</v>
       </c>
       <c r="B71" s="1">
-        <v>14998399.300000001</v>
+        <v>17900791.800000001</v>
       </c>
       <c r="C71" s="2">
-        <v>95.00796739033332</v>
+        <v>103.60030395699999</v>
       </c>
       <c r="D71" s="1">
-        <v>49133132</v>
+        <v>54369915</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11">
-        <v>40360</v>
+      <c r="A72" s="6">
+        <v>43009</v>
       </c>
       <c r="B72" s="1">
-        <v>14921452.800000001</v>
+        <v>18744754</v>
       </c>
       <c r="C72" s="2">
-        <v>95.300375606800003</v>
+        <v>103.93132316226666</v>
       </c>
       <c r="D72" s="1">
-        <v>49190032</v>
+        <v>54696638</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11">
-        <v>40452</v>
+      <c r="A73" s="6">
+        <v>43101</v>
       </c>
       <c r="B73" s="1">
-        <v>15499605.1</v>
+        <v>18017105.100000001</v>
       </c>
       <c r="C73" s="2">
-        <v>95.864625314600005</v>
+        <v>103.48291410886667</v>
       </c>
       <c r="D73" s="1">
-        <v>48478718</v>
+        <v>54590773</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="11">
-        <v>40544</v>
+      <c r="A74" s="6">
+        <v>43191</v>
       </c>
       <c r="B74" s="1">
-        <v>14902733.1</v>
+        <v>18667773.100000001</v>
       </c>
       <c r="C74" s="2">
-        <v>94.277678297333338</v>
+        <v>106.00811148566667</v>
       </c>
       <c r="D74" s="1">
-        <v>48505168</v>
+        <v>55643417</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="11">
-        <v>40634</v>
+      <c r="A75" s="6">
+        <v>43282</v>
       </c>
       <c r="B75" s="1">
-        <v>15413046.4</v>
+        <v>18405262.800000001</v>
       </c>
       <c r="C75" s="2">
-        <v>96.858395653366685</v>
+        <v>105.08682818499999</v>
       </c>
       <c r="D75" s="1">
-        <v>49482112</v>
+        <v>55962275</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="11">
-        <v>40725</v>
+      <c r="A76" s="6">
+        <v>43374</v>
       </c>
       <c r="B76" s="1">
-        <v>15526015.300000001</v>
+        <v>18990033.100000001</v>
       </c>
       <c r="C76" s="2">
-        <v>98.007566970033338</v>
+        <v>102.58705499176666</v>
       </c>
       <c r="D76" s="1">
-        <v>50127032</v>
+        <v>56023199</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="11">
-        <v>40817</v>
+      <c r="A77" s="6">
+        <v>43466</v>
       </c>
       <c r="B77" s="1">
-        <v>16139539.5</v>
+        <v>18275214.199999999</v>
       </c>
       <c r="C77" s="2">
-        <v>100.66274684119999</v>
+        <v>103.50722948393333</v>
       </c>
       <c r="D77" s="1">
-        <v>50772496</v>
+        <v>56038471</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="11">
-        <v>40909</v>
+      <c r="A78" s="6">
+        <v>43556</v>
       </c>
       <c r="B78" s="1">
-        <v>15619752.699999999</v>
+        <v>18496704.399999999</v>
       </c>
       <c r="C78" s="2">
-        <v>98.581348372500017</v>
+        <v>102.73598999966667</v>
       </c>
       <c r="D78" s="1">
-        <v>50192842</v>
+        <v>56951215</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="11">
-        <v>41000</v>
+      <c r="A79" s="6">
+        <v>43647</v>
       </c>
       <c r="B79" s="1">
-        <v>16027465.4</v>
+        <v>18398056</v>
       </c>
       <c r="C79" s="2">
-        <v>100.14055011976666</v>
+        <v>103.57944820696667</v>
       </c>
       <c r="D79" s="1">
-        <v>51477178</v>
+        <v>57349577</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="11">
-        <v>41091</v>
+      <c r="A80" s="6">
+        <v>43739</v>
       </c>
       <c r="B80" s="1">
-        <v>15952811.300000001</v>
+        <v>18869805</v>
       </c>
       <c r="C80" s="2">
-        <v>101.16691653186666</v>
+        <v>100.36775253156668</v>
       </c>
       <c r="D80" s="1">
-        <v>51927050</v>
+        <v>57625521</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="11">
-        <v>41183</v>
+      <c r="A81" s="6">
+        <v>43831</v>
       </c>
       <c r="B81" s="1">
-        <v>16638865.199999999</v>
+        <v>18024720.5</v>
       </c>
       <c r="C81" s="2">
-        <v>101.00582707966667</v>
+        <v>100.84313896153334</v>
       </c>
       <c r="D81" s="1">
-        <v>51317999</v>
+        <v>57328364</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="11">
-        <v>41275</v>
+      <c r="A82" s="6">
+        <v>43922</v>
       </c>
       <c r="B82" s="1">
-        <v>15719787.1</v>
+        <v>15043537.9</v>
       </c>
       <c r="C82" s="2">
-        <v>97.770593207166669</v>
+        <v>76.580192771699998</v>
       </c>
       <c r="D82" s="1">
-        <v>50847242</v>
+        <v>47346850</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="11">
-        <v>41365</v>
+      <c r="A83" s="6">
+        <v>44013</v>
       </c>
       <c r="B83" s="1">
-        <v>16361863.800000001</v>
+        <v>16813763</v>
       </c>
       <c r="C83" s="2">
-        <v>100.34858603026667</v>
+        <v>94.528997082899991</v>
       </c>
       <c r="D83" s="1">
-        <v>51895865</v>
+        <v>53780524</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="11">
-        <v>41456</v>
+      <c r="A84" s="6">
+        <v>44105</v>
       </c>
       <c r="B84" s="1">
-        <v>16186108.699999999</v>
+        <v>18057270.399999999</v>
       </c>
       <c r="C84" s="2">
-        <v>100.26714586050001</v>
+        <v>97.24326240953333</v>
       </c>
       <c r="D84" s="1">
-        <v>52034353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="11">
-        <v>41548</v>
-      </c>
-      <c r="B85" s="1">
-        <v>16840988.699999999</v>
-      </c>
-      <c r="C85" s="2">
-        <v>101.61367490206665</v>
-      </c>
-      <c r="D85" s="1">
-        <v>52370886</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="11">
-        <v>41640</v>
-      </c>
-      <c r="B86" s="1">
-        <v>16162067.9</v>
-      </c>
-      <c r="C86" s="2">
-        <v>100.37173201673333</v>
-      </c>
-      <c r="D86" s="1">
-        <v>51559018</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="11">
-        <v>41730</v>
-      </c>
-      <c r="B87" s="1">
-        <v>16743444.5</v>
-      </c>
-      <c r="C87" s="2">
-        <v>102.88336962156667</v>
-      </c>
-      <c r="D87" s="1">
-        <v>51836752</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="11">
-        <v>41821</v>
-      </c>
-      <c r="B88" s="1">
-        <v>16649896.199999999</v>
-      </c>
-      <c r="C88" s="2">
-        <v>102.69917708003334</v>
-      </c>
-      <c r="D88" s="1">
-        <v>52192043</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="11">
-        <v>41913</v>
-      </c>
-      <c r="B89" s="1">
-        <v>17408791.300000001</v>
-      </c>
-      <c r="C89" s="2">
-        <v>104.33769125786667</v>
-      </c>
-      <c r="D89" s="1">
-        <v>52108400</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="11">
-        <v>42005</v>
-      </c>
-      <c r="B90" s="1">
-        <v>16710227.4</v>
-      </c>
-      <c r="C90" s="2">
-        <v>101.75597557869999</v>
-      </c>
-      <c r="D90" s="1">
-        <v>52007842</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="11">
-        <v>42095</v>
-      </c>
-      <c r="B91" s="1">
-        <v>17261231.300000001</v>
-      </c>
-      <c r="C91" s="2">
-        <v>103.08009542493333</v>
-      </c>
-      <c r="D91" s="1">
-        <v>52623721</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="11">
-        <v>42186</v>
-      </c>
-      <c r="B92" s="1">
-        <v>17331652.300000001</v>
-      </c>
-      <c r="C92" s="2">
-        <v>105.55374746496666</v>
-      </c>
-      <c r="D92" s="1">
-        <v>53179919</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="11">
-        <v>42278</v>
-      </c>
-      <c r="B93" s="1">
-        <v>17866321.600000001</v>
-      </c>
-      <c r="C93" s="2">
-        <v>104.42122641869999</v>
-      </c>
-      <c r="D93" s="1">
-        <v>53809017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="11">
-        <v>42370</v>
-      </c>
-      <c r="B94" s="1">
-        <v>17166317.600000001</v>
-      </c>
-      <c r="C94" s="2">
-        <v>102.83286849396667</v>
-      </c>
-      <c r="D94" s="1">
-        <v>52918649</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="11">
-        <v>42461</v>
-      </c>
-      <c r="B95" s="1">
-        <v>17780958.600000001</v>
-      </c>
-      <c r="C95" s="2">
-        <v>104.4972636087</v>
-      </c>
-      <c r="D95" s="1">
-        <v>53539565</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="11">
-        <v>42552</v>
-      </c>
-      <c r="B96" s="1">
-        <v>17625592.100000001</v>
-      </c>
-      <c r="C96" s="2">
-        <v>104.2029320908</v>
-      </c>
-      <c r="D96" s="1">
-        <v>54226803</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="11">
-        <v>42644</v>
-      </c>
-      <c r="B97" s="1">
-        <v>18416088.699999999</v>
-      </c>
-      <c r="C97" s="2">
-        <v>104.59097660750001</v>
-      </c>
-      <c r="D97" s="1">
-        <v>54034800</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="11">
-        <v>42736</v>
-      </c>
-      <c r="B98" s="1">
-        <v>17757948.300000001</v>
-      </c>
-      <c r="C98" s="2">
-        <v>103.93608957573332</v>
-      </c>
-      <c r="D98" s="1">
-        <v>53681720</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="11">
-        <v>42826</v>
-      </c>
-      <c r="B99" s="1">
-        <v>18085551.199999999</v>
-      </c>
-      <c r="C99" s="2">
-        <v>103.6189851804</v>
-      </c>
-      <c r="D99" s="1">
-        <v>54068791</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="11">
-        <v>42917</v>
-      </c>
-      <c r="B100" s="1">
-        <v>17900791.800000001</v>
-      </c>
-      <c r="C100" s="2">
-        <v>103.60030395699999</v>
-      </c>
-      <c r="D100" s="1">
-        <v>54369915</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="11">
-        <v>43009</v>
-      </c>
-      <c r="B101" s="1">
-        <v>18744754</v>
-      </c>
-      <c r="C101" s="2">
-        <v>103.93132316226666</v>
-      </c>
-      <c r="D101" s="1">
-        <v>54696638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="11">
-        <v>43101</v>
-      </c>
-      <c r="B102" s="1">
-        <v>18017105.100000001</v>
-      </c>
-      <c r="C102" s="2">
-        <v>103.48291410886667</v>
-      </c>
-      <c r="D102" s="1">
-        <v>54590773</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="11">
-        <v>43191</v>
-      </c>
-      <c r="B103" s="1">
-        <v>18667773.100000001</v>
-      </c>
-      <c r="C103" s="2">
-        <v>106.00811148566667</v>
-      </c>
-      <c r="D103" s="1">
-        <v>55643417</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="11">
-        <v>43282</v>
-      </c>
-      <c r="B104" s="1">
-        <v>18405262.800000001</v>
-      </c>
-      <c r="C104" s="2">
-        <v>105.08682818499999</v>
-      </c>
-      <c r="D104" s="1">
-        <v>55962275</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="11">
-        <v>43374</v>
-      </c>
-      <c r="B105" s="1">
-        <v>18990033.100000001</v>
-      </c>
-      <c r="C105" s="2">
-        <v>102.58705499176666</v>
-      </c>
-      <c r="D105" s="1">
-        <v>56023199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="11">
-        <v>43466</v>
-      </c>
-      <c r="B106" s="1">
-        <v>18275214.199999999</v>
-      </c>
-      <c r="C106" s="2">
-        <v>103.50722948393333</v>
-      </c>
-      <c r="D106" s="1">
-        <v>56038471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="11">
-        <v>43556</v>
-      </c>
-      <c r="B107" s="1">
-        <v>18496704.399999999</v>
-      </c>
-      <c r="C107" s="2">
-        <v>102.73598999966667</v>
-      </c>
-      <c r="D107" s="1">
-        <v>56951215</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="11">
-        <v>43647</v>
-      </c>
-      <c r="B108" s="1">
-        <v>18398056</v>
-      </c>
-      <c r="C108" s="2">
-        <v>103.57944820696667</v>
-      </c>
-      <c r="D108" s="1">
-        <v>57349577</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="11">
-        <v>43739</v>
-      </c>
-      <c r="B109" s="1">
-        <v>18869805</v>
-      </c>
-      <c r="C109" s="2">
-        <v>100.36775253156668</v>
-      </c>
-      <c r="D109" s="1">
-        <v>57625521</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="11">
-        <v>43831</v>
-      </c>
-      <c r="B110" s="1">
-        <v>18024720.5</v>
-      </c>
-      <c r="C110" s="2">
-        <v>100.84313896153334</v>
-      </c>
-      <c r="D110" s="1">
-        <v>57328364</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="11">
-        <v>43922</v>
-      </c>
-      <c r="B111" s="1">
-        <v>15043537.9</v>
-      </c>
-      <c r="C111" s="2">
-        <v>76.580192771699998</v>
-      </c>
-      <c r="D111" s="1">
-        <v>47346850</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="11">
-        <v>44013</v>
-      </c>
-      <c r="B112" s="1">
-        <v>16813763</v>
-      </c>
-      <c r="C112" s="2">
-        <v>94.528997082899991</v>
-      </c>
-      <c r="D112" s="1">
-        <v>53780524</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="11">
-        <v>44105</v>
-      </c>
-      <c r="B113" s="1">
-        <v>18057270.399999999</v>
-      </c>
-      <c r="C113" s="2">
-        <v>97.24326240953333</v>
-      </c>
-      <c r="D113" s="1">
         <v>55880916</v>
       </c>
     </row>

--- a/Tarea 3/Datos/Base de datos ejercicio 3.xlsx
+++ b/Tarea 3/Datos/Base de datos ejercicio 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0066b8dfbbc5c50e/Documents/GitHub/TareasMacro2/Tarea 3/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{6709A9C5-DF88-4A81-A933-386C21135B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4C4BD461-A6FD-4F7B-8407-C5B762C327BA}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{6709A9C5-DF88-4A81-A933-386C21135B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{503C3CCD-A437-4F6F-A2BA-A0ADECBCCB72}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -728,7 +728,7 @@
         <v>41280968</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <v>37987</v>
       </c>
@@ -742,7 +742,7 @@
         <v>41547418</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <v>38078</v>
       </c>
@@ -756,7 +756,7 @@
         <v>42100766</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="6">
         <v>38169</v>
       </c>
@@ -770,7 +770,7 @@
         <v>42230557</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="6">
         <v>38261</v>
       </c>
@@ -784,7 +784,7 @@
         <v>41970528</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="6">
         <v>38353</v>
       </c>
@@ -798,7 +798,7 @@
         <v>43099847</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="6">
         <v>38443</v>
       </c>
@@ -812,7 +812,7 @@
         <v>43180433</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <v>38534</v>
       </c>
@@ -826,7 +826,7 @@
         <v>44000204</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>38626</v>
       </c>
@@ -840,7 +840,7 @@
         <v>44245519</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <v>38718</v>
       </c>
@@ -854,7 +854,7 @@
         <v>44306012</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="6">
         <v>38808</v>
       </c>
@@ -868,7 +868,7 @@
         <v>44611672</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="6">
         <v>38899</v>
       </c>
@@ -882,7 +882,7 @@
         <v>45431392</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="6">
         <v>38991</v>
       </c>
@@ -896,7 +896,7 @@
         <v>45580994</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="6">
         <v>39083</v>
       </c>
@@ -909,8 +909,11 @@
       <c r="D29" s="1">
         <v>45314888</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>99.648825586114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="6">
         <v>39173</v>
       </c>
@@ -923,8 +926,11 @@
       <c r="D30" s="1">
         <v>45569395</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>100.67087226753699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="6">
         <v>39264</v>
       </c>
@@ -937,8 +943,11 @@
       <c r="D31" s="1">
         <v>45864926</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>99.969017643813345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="6">
         <v>39356</v>
       </c>
@@ -951,8 +960,11 @@
       <c r="D32" s="1">
         <v>46868952</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>100.53935596365601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="6">
         <v>39448</v>
       </c>
@@ -965,8 +977,11 @@
       <c r="D33" s="1">
         <v>46453196</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>100.47494607980968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="6">
         <v>39539</v>
       </c>
@@ -979,8 +994,11 @@
       <c r="D34" s="1">
         <v>46905921</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>101.56025626627167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="6">
         <v>39630</v>
       </c>
@@ -993,8 +1011,11 @@
       <c r="D35" s="1">
         <v>46964082</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>100.58695601618767</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="6">
         <v>39722</v>
       </c>
@@ -1007,8 +1028,11 @@
       <c r="D36" s="1">
         <v>46753657</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>101.10107074612301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="6">
         <v>39814</v>
       </c>
@@ -1021,8 +1045,11 @@
       <c r="D37" s="1">
         <v>46977904</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>100.47377285255199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="6">
         <v>39904</v>
       </c>
@@ -1035,8 +1062,11 @@
       <c r="D38" s="1">
         <v>47453163</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>100.18352814438134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="6">
         <v>39995</v>
       </c>
@@ -1049,8 +1079,11 @@
       <c r="D39" s="1">
         <v>48738589</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>100.20256760231666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="6">
         <v>40087</v>
       </c>
@@ -1063,8 +1096,11 @@
       <c r="D40" s="1">
         <v>48903792</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>100.12550194327832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="6">
         <v>40179</v>
       </c>
@@ -1077,8 +1113,11 @@
       <c r="D41" s="1">
         <v>48069274</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>100.58190868382934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="6">
         <v>40269</v>
       </c>
@@ -1091,8 +1130,11 @@
       <c r="D42" s="1">
         <v>49133132</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>99.479891862773982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="6">
         <v>40360</v>
       </c>
@@ -1105,8 +1147,11 @@
       <c r="D43" s="1">
         <v>49190032</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>99.277824855053339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="6">
         <v>40452</v>
       </c>
@@ -1119,8 +1164,11 @@
       <c r="D44" s="1">
         <v>48478718</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>98.675098244877006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="6">
         <v>40544</v>
       </c>
@@ -1133,8 +1181,11 @@
       <c r="D45" s="1">
         <v>48505168</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>99.700081632021337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="6">
         <v>40634</v>
       </c>
@@ -1147,8 +1198,11 @@
       <c r="D46" s="1">
         <v>49482112</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>99.248700585143339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="6">
         <v>40725</v>
       </c>
@@ -1161,8 +1215,11 @@
       <c r="D47" s="1">
         <v>50127032</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>100.15554599936233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="6">
         <v>40817</v>
       </c>
@@ -1175,8 +1232,11 @@
       <c r="D48" s="1">
         <v>50772496</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>100.38781516189499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="6">
         <v>40909</v>
       </c>
@@ -1189,8 +1249,11 @@
       <c r="D49" s="1">
         <v>50192842</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>100.34076289763367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="6">
         <v>41000</v>
       </c>
@@ -1203,8 +1266,11 @@
       <c r="D50" s="1">
         <v>51477178</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>100.28658890840734</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="6">
         <v>41091</v>
       </c>
@@ -1217,8 +1283,11 @@
       <c r="D51" s="1">
         <v>51927050</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>99.810886548592336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="6">
         <v>41183</v>
       </c>
@@ -1231,8 +1300,11 @@
       <c r="D52" s="1">
         <v>51317999</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>99.146330769384676</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="6">
         <v>41275</v>
       </c>
@@ -1245,8 +1317,11 @@
       <c r="D53" s="1">
         <v>50847242</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>100.06999550724167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="6">
         <v>41365</v>
       </c>
@@ -1259,8 +1334,11 @@
       <c r="D54" s="1">
         <v>51895865</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>99.440478200902007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="6">
         <v>41456</v>
       </c>
@@ -1273,8 +1351,11 @@
       <c r="D55" s="1">
         <v>52034353</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>99.968521639532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="6">
         <v>41548</v>
       </c>
@@ -1287,8 +1368,11 @@
       <c r="D56" s="1">
         <v>52370886</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>100.65247896404134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="6">
         <v>41640</v>
       </c>
@@ -1301,8 +1385,11 @@
       <c r="D57" s="1">
         <v>51559018</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>100.20821463432499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="6">
         <v>41730</v>
       </c>
@@ -1315,8 +1402,11 @@
       <c r="D58" s="1">
         <v>51836752</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>100.60232585571201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="6">
         <v>41821</v>
       </c>
@@ -1329,8 +1419,11 @@
       <c r="D59" s="1">
         <v>52192043</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>100.99462970748834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="6">
         <v>41913</v>
       </c>
@@ -1343,8 +1436,11 @@
       <c r="D60" s="1">
         <v>52108400</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>100.75314484475034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="6">
         <v>42005</v>
       </c>
@@ -1357,8 +1453,11 @@
       <c r="D61" s="1">
         <v>52007842</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>101.262710723761</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="6">
         <v>42095</v>
       </c>
@@ -1371,8 +1470,11 @@
       <c r="D62" s="1">
         <v>52623721</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>101.12359542684499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="6">
         <v>42186</v>
       </c>
@@ -1385,8 +1487,11 @@
       <c r="D63" s="1">
         <v>53179919</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>101.48155795908133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="6">
         <v>42278</v>
       </c>
@@ -1399,8 +1504,11 @@
       <c r="D64" s="1">
         <v>53809017</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>102.13985997791367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="6">
         <v>42370</v>
       </c>
@@ -1413,8 +1521,11 @@
       <c r="D65" s="1">
         <v>52918649</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>102.20790373579435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="6">
         <v>42461</v>
       </c>
@@ -1427,8 +1538,11 @@
       <c r="D66" s="1">
         <v>53539565</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>103.70416583835465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="6">
         <v>42552</v>
       </c>
@@ -1441,8 +1555,11 @@
       <c r="D67" s="1">
         <v>54226803</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>104.30302125352067</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="6">
         <v>42644</v>
       </c>
@@ -1455,8 +1572,11 @@
       <c r="D68" s="1">
         <v>54034800</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>104.121619482908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="6">
         <v>42736</v>
       </c>
@@ -1469,8 +1589,11 @@
       <c r="D69" s="1">
         <v>53681720</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>103.78118680176233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="6">
         <v>42826</v>
       </c>
@@ -1483,8 +1606,11 @@
       <c r="D70" s="1">
         <v>54068791</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>103.84155185378734</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="6">
         <v>42917</v>
       </c>
@@ -1497,8 +1623,11 @@
       <c r="D71" s="1">
         <v>54369915</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>104.03371608523234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="6">
         <v>43009</v>
       </c>
@@ -1511,8 +1640,11 @@
       <c r="D72" s="1">
         <v>54696638</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>104.11662104601834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="6">
         <v>43101</v>
       </c>
@@ -1525,8 +1657,11 @@
       <c r="D73" s="1">
         <v>54590773</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>104.19293011073967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="6">
         <v>43191</v>
       </c>
@@ -1539,8 +1674,11 @@
       <c r="D74" s="1">
         <v>55643417</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>105.12161376863433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="6">
         <v>43282</v>
       </c>
@@ -1553,8 +1691,11 @@
       <c r="D75" s="1">
         <v>55962275</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>105.08554130341766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="6">
         <v>43374</v>
       </c>
@@ -1567,8 +1708,11 @@
       <c r="D76" s="1">
         <v>56023199</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>105.08340833309568</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="6">
         <v>43466</v>
       </c>
@@ -1581,8 +1725,11 @@
       <c r="D77" s="1">
         <v>56038471</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>106.68508094111434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="6">
         <v>43556</v>
       </c>
@@ -1595,8 +1742,11 @@
       <c r="D78" s="1">
         <v>56951215</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>107.12172374293034</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="6">
         <v>43647</v>
       </c>
@@ -1609,8 +1759,11 @@
       <c r="D79" s="1">
         <v>57349577</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>108.40360682501233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="6">
         <v>43739</v>
       </c>
@@ -1623,8 +1776,11 @@
       <c r="D80" s="1">
         <v>57625521</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>108.33313788278434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="6">
         <v>43831</v>
       </c>
@@ -1637,8 +1793,11 @@
       <c r="D81" s="1">
         <v>57328364</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>108.09695372349699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="6">
         <v>43922</v>
       </c>
@@ -1651,8 +1810,11 @@
       <c r="D82" s="1">
         <v>47346850</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>105.02371784267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="6">
         <v>44013</v>
       </c>
@@ -1665,8 +1827,11 @@
       <c r="D83" s="1">
         <v>53780524</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>108.66514939982066</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="6">
         <v>44105</v>
       </c>
@@ -1678,6 +1843,9 @@
       </c>
       <c r="D84" s="1">
         <v>55880916</v>
+      </c>
+      <c r="E84">
+        <v>110.33317169013735</v>
       </c>
     </row>
   </sheetData>
